--- a/Test Cases User Registration.xlsx
+++ b/Test Cases User Registration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnikolova\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgyurov\Desktop\PetStoreTestingTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,8 +18,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martin Gyurov</author>
+  </authors>
+  <commentList>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Martin Gyurov:
+Too mu</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
   <si>
     <t>TC Title</t>
   </si>
@@ -1138,12 +1164,63 @@
   <si>
     <t>The field for the birthday date input matches the date chosen from the calendar</t>
   </si>
+  <si>
+    <t>1. Leave all fields empty 
+2.Click submit button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Leave all fields empty
+2.Check 1-3 subscriptions
+3.Click submit button </t>
+  </si>
+  <si>
+    <t>1.Leave Address field empty
+2.Fill all other required fields with Valid data
+3.Check on 0-3 subscriptions (optional)
+4.Click submit button</t>
+  </si>
+  <si>
+    <t>1.Leave Birthday field empty
+2.Fill all other required fields with Valid data
+3.Check on 0-3 subscriptions (optional)
+4.Click submit button</t>
+  </si>
+  <si>
+    <t>1.Leave Confirm password field empty
+2.Fill all other required fields with Valid data
+3.Check on 0-3 subscriptions (optional)
+4.Click submit button</t>
+  </si>
+  <si>
+    <t>1.Leave Password field empty
+2.Fill all other required fields with Valid data
+3.Check on 0-3 subscriptions (optional)
+4.Click submit button</t>
+  </si>
+  <si>
+    <t>1.Leave Username field empty
+2.Fill all other required fields with Valid data
+3.Check on 0-3 subscriptions (optional)
+4.Click submit button</t>
+  </si>
+  <si>
+    <t>1.In Username field type only 1 character
+2.Fill all other required fields with Valid data
+3.Check on 0-3 subscriptions (optional)
+4.Click submit button</t>
+  </si>
+  <si>
+    <t>could be written as 1 TC</t>
+  </si>
+  <si>
+    <t>TC can faild both at step 2 and step 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1161,21 +1238,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1215,8 +1277,32 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1235,8 +1321,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1257,12 +1349,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1273,71 +1380,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1643,696 +1761,744 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="65.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="65" customWidth="1"/>
+    <col min="6" max="6" width="65" style="15" customWidth="1"/>
+    <col min="7" max="7" width="0.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="14" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="22" t="s">
         <v>4</v>
       </c>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="20" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="21" t="s">
         <v>36</v>
       </c>
+      <c r="G9" s="16" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="G10" s="11" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="23" t="s">
         <v>44</v>
       </c>
+      <c r="G11" s="11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="G12" s="11" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="23" t="s">
         <v>40</v>
       </c>
+      <c r="G13" s="11" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="23" t="s">
         <v>46</v>
       </c>
+      <c r="G14" s="11" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="23" t="s">
         <v>45</v>
       </c>
+      <c r="G15" s="11" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="C16" s="26"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
         <v>12</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="F17" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <v>13</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+      <c r="F18" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
         <v>14</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="A20" s="25">
         <v>15</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+      <c r="A21" s="25">
         <v>16</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="25">
         <v>17</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
+      <c r="A23" s="25">
         <v>18</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="A24" s="25">
         <v>19</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
+      <c r="A26" s="25">
         <v>20</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="F26" s="29" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
+      <c r="A27" s="25">
         <v>21</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="22" t="s">
         <v>38</v>
       </c>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
+      <c r="A28" s="25">
         <v>22</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="22" t="s">
         <v>38</v>
       </c>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
+      <c r="A29" s="25">
         <v>23</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="22" t="s">
         <v>38</v>
       </c>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
+      <c r="A30" s="25">
         <v>24</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="22" t="s">
         <v>38</v>
       </c>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
+      <c r="A31" s="25">
         <v>25</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
+      <c r="A32" s="25">
         <v>26</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
+      <c r="A33" s="25">
         <v>27</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="22" t="s">
         <v>38</v>
       </c>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
+      <c r="A34" s="25">
         <v>28</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
+      <c r="A35" s="25">
         <v>29</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="23" t="s">
         <v>38</v>
       </c>
+      <c r="F35" s="29"/>
     </row>
     <row r="36" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="4"/>
-      <c r="F36" s="5"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
+      <c r="A37" s="25">
         <v>30</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="5"/>
+      <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="4"/>
-      <c r="F38" s="5"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23">
+      <c r="A39" s="25">
         <v>31</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="20">
         <v>32</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="20">
         <v>33</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="20">
         <v>34</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2356,5 +2522,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Cases User Registration.xlsx
+++ b/Test Cases User Registration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzhingova\Desktop\PetStoreTestingTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgyurov\Desktop\PetStoreTestingTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -488,6 +488,10 @@
     <t>TC can faild both at step 2 and step 3</t>
   </si>
   <si>
+    <t xml:space="preserve">
+1. Click submit button</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. Username field is empty
 2. Password field is empty
@@ -499,7 +503,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -509,7 +513,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -521,7 +525,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -531,7 +535,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -553,7 +557,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -563,7 +567,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -585,7 +589,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -595,7 +599,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -617,7 +621,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -627,7 +631,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -649,7 +653,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -659,7 +663,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -673,7 +677,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -683,7 +687,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -701,7 +705,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -711,7 +715,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -729,7 +733,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -739,7 +743,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -757,7 +761,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -767,7 +771,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -785,7 +789,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -795,7 +799,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -813,7 +817,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -824,7 +828,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -842,7 +846,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -852,7 +856,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -870,7 +874,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -880,7 +884,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -902,7 +906,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -912,7 +916,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -933,7 +937,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -943,7 +947,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -964,7 +968,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -974,7 +978,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -995,7 +999,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1005,7 +1009,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1026,7 +1030,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1036,7 +1040,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1057,7 +1061,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1067,7 +1071,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1088,7 +1092,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1098,7 +1102,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1119,7 +1123,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1129,7 +1133,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1150,7 +1154,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1160,7 +1164,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1181,7 +1185,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -1191,7 +1195,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -1204,23 +1208,14 @@
 7.  Mark none/ one/ two/ three options from the subscriptions menu
 8.Click submit button</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. Click submit button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -1267,14 +1262,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1282,34 +1269,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1381,112 +1348,87 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1795,796 +1737,750 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="65" style="15" customWidth="1"/>
-    <col min="7" max="7" width="0.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="65" style="8" customWidth="1"/>
+    <col min="7" max="7" width="0.140625" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:9" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="14"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" s="20" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" s="20" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="20" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="20" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19">
+        <v>20</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19">
+        <v>21</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
+        <v>22</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="19">
+        <v>23</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="19">
+        <v>24</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19">
+        <v>25</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>26</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19">
+        <v>27</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19">
+        <v>28</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="19">
+        <v>29</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32">
-        <v>6</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32">
-        <v>7</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32">
-        <v>8</v>
-      </c>
-      <c r="B12" s="29" t="s">
+      <c r="E35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19">
         <v>30</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
+      <c r="B37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19">
+        <v>31</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>32</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32">
+      <c r="E41" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>33</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
+      <c r="E42" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
+        <v>34</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
-      <c r="B16" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
-        <v>12</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="E43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <v>14</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
-        <v>15</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
-        <v>16</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
-        <v>17</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
-        <v>18</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
-        <v>19</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
-        <v>20</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
-        <v>21</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
-        <v>22</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
-        <v>23</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
-        <v>24</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
-        <v>25</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
-        <v>26</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
-        <v>27</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28">
-        <v>28</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28">
-        <v>29</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28">
-        <v>30</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28">
-        <v>31</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="32">
-        <v>32</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="32">
-        <v>33</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-    </row>
-    <row r="43" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="32">
-        <v>34</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:7" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="44" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Test Cases User Registration.xlsx
+++ b/Test Cases User Registration.xlsx
@@ -5,47 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgyurov\Desktop\PetStoreTestingTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnikolova\Desktop\PetStoreTestingTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Edited sheet (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Martin Gyurov</author>
-  </authors>
-  <commentList>
-    <comment ref="D11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Martin Gyurov:
-Too mu</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="137">
   <si>
     <t>TC Title</t>
   </si>
@@ -1174,53 +1149,88 @@
 3.Click submit button </t>
   </si>
   <si>
+    <t>could be written as 1 TC</t>
+  </si>
+  <si>
+    <t>TC can faild both at step 2 and step 3</t>
+  </si>
+  <si>
+    <t>1.Leave Username field empty
+2.Fill all other required fields with Valid data
+3.Click on 0-3 subscriptions (optional)
+4.Click submit button</t>
+  </si>
+  <si>
+    <t>1.Leave Password field empty
+2.Fill all other required fields with Valid data
+3.Clickk on 0-3 subscriptions (optional)
+4.Click submit button</t>
+  </si>
+  <si>
+    <t>1.Leave Confirm password field empty
+2.Fill all other required fields with Valid data
+3.Click on 0-3 subscriptions (optional)
+4.Click submit button</t>
+  </si>
+  <si>
+    <t>1.Leave Birthday field empty
+2.Fill all other required fields with Valid data
+3.Click on 0-3 subscriptions (optional)
+4.Click submit button</t>
+  </si>
+  <si>
     <t>1.Leave Address field empty
 2.Fill all other required fields with Valid data
-3.Check on 0-3 subscriptions (optional)
+3.Click on 0-3 subscriptions (optional)
 4.Click submit button</t>
   </si>
   <si>
-    <t>1.Leave Birthday field empty
-2.Fill all other required fields with Valid data
-3.Check on 0-3 subscriptions (optional)
+    <t>1. In Username field type only 1 character
+2. Fillin all other required fields with Valid data
+3. Check on 0-3 subscriptions
 4.Click submit button</t>
   </si>
   <si>
-    <t>1.Leave Confirm password field empty
-2.Fill all other required fields with Valid data
-3.Check on 0-3 subscriptions (optional)
-4.Click submit button</t>
-  </si>
-  <si>
-    <t>1.Leave Password field empty
-2.Fill all other required fields with Valid data
-3.Check on 0-3 subscriptions (optional)
-4.Click submit button</t>
-  </si>
-  <si>
-    <t>1.Leave Username field empty
-2.Fill all other required fields with Valid data
-3.Check on 0-3 subscriptions (optional)
-4.Click submit button</t>
-  </si>
-  <si>
-    <t>1.In Username field type only 1 character
-2.Fill all other required fields with Valid data
-3.Check on 0-3 subscriptions (optional)
-4.Click submit button</t>
-  </si>
-  <si>
-    <t>could be written as 1 TC</t>
-  </si>
-  <si>
-    <t>TC can faild both at step 2 and step 3</t>
+    <t>Check the username with 17 characters</t>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration when 17 characters are entered in the username field</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1. Enter in the username field 17 characters from any type
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2. Enter in the password field between 5 and 16 characters with at least one small and one capital letter, one special character and a digit
+3. Enter the exact same password in the "confirm password field"
+4. Enter a birthday date
+5. Enter an address
+6. Choose a gender
+7.  Mark none/ one/ two/ three options from the subscriptions menu
+8.Click submit button</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1293,16 +1303,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1324,6 +1326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,7 +1377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1419,9 +1427,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1457,6 +1462,25 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1761,12 +1785,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1776,8 +1800,8 @@
     <col min="3" max="3" width="32.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="65.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="65" style="15" customWidth="1"/>
-    <col min="7" max="7" width="0.140625" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1801,29 +1825,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="11"/>
@@ -1832,90 +1856,90 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -1923,19 +1947,19 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="19">
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -1943,39 +1967,39 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+      <c r="A11" s="19">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+      <c r="A12" s="19">
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -1983,522 +2007,1303 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+      <c r="A14" s="19">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>11</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
+        <v>12</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>13</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25">
-        <v>12</v>
-      </c>
-      <c r="B17" s="21" t="s">
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>14</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="C19" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
-        <v>13</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="21" t="s">
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <v>15</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
-        <v>14</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="21" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>16</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
-        <v>15</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="23" t="s">
+    </row>
+    <row r="22" spans="1:6" s="36" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33">
+        <v>17</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25">
-        <v>16</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
-        <v>17</v>
-      </c>
-      <c r="B22" s="21" t="s">
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
-        <v>18</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>49</v>
       </c>
       <c r="E23" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
         <v>19</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B25" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+    <row r="26" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
         <v>20</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B27" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="25">
-        <v>21</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>91</v>
       </c>
       <c r="E27" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
+      <c r="F27" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>21</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
         <v>22</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B29" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E29" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="25">
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
         <v>23</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B30" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
         <v>24</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B31" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25">
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
         <v>25</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B32" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
         <v>26</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B33" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25">
-        <v>27</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>99</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
+        <v>27</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24">
+        <v>28</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24">
+        <v>29</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="24">
+        <v>30</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
+        <v>31</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="19">
+        <v>32</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19">
+        <v>33</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
+        <v>34</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A39:C39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
+        <v>5</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>6</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>7</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>8</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>9</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>10</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>11</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
+        <v>12</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>13</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>14</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <v>15</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>16</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>17</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
+        <v>18</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>19</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>20</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>21</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>22</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="28"/>
+    </row>
+    <row r="29" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
+        <v>23</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
+        <v>24</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="28"/>
+    </row>
+    <row r="31" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
+        <v>25</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
+        <v>26</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
+        <v>27</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <v>28</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="29"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
+      <c r="A35" s="24">
         <v>29</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="22"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25">
+      <c r="A37" s="24">
         <v>30</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="22"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25">
+      <c r="A39" s="24">
         <v>31</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="22" t="s">
         <v>123</v>
       </c>
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20">
+      <c r="A41" s="19">
         <v>32</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20">
+      <c r="A42" s="19">
         <v>33</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20">
+      <c r="A43" s="19">
         <v>34</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2522,6 +3327,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Test Cases User Registration.xlsx
+++ b/Test Cases User Registration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnikolova\Desktop\PetStoreTestingTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgyurov\Desktop\PetStoreTestingTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1462,15 +1462,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,6 +1472,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1825,11 +1825,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="13"/>
@@ -1918,11 +1918,11 @@
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
     </row>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
     </row>
@@ -2167,23 +2167,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="36" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33">
+    <row r="22" spans="1:6" s="33" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30">
         <v>17</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="35"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
@@ -2235,11 +2235,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="22"/>
       <c r="E26" s="21"/>
     </row>
@@ -2426,11 +2426,11 @@
       <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="22"/>
       <c r="E37" s="21"/>
       <c r="F37" s="11"/>
@@ -2454,11 +2454,11 @@
       <c r="F38" s="11"/>
     </row>
     <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="22"/>
       <c r="E39" s="21"/>
       <c r="F39" s="11"/>
@@ -2482,11 +2482,11 @@
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="11"/>
@@ -2569,9 +2569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2606,11 +2606,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="13"/>
@@ -2699,11 +2699,11 @@
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
     </row>
@@ -2849,10 +2849,10 @@
     </row>
     <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
     </row>
@@ -3000,11 +3000,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="22"/>
       <c r="E25" s="21"/>
     </row>
@@ -3191,11 +3191,11 @@
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="22"/>
       <c r="E36" s="21"/>
       <c r="F36" s="11"/>
@@ -3219,11 +3219,11 @@
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="22"/>
       <c r="E38" s="21"/>
       <c r="F38" s="11"/>
@@ -3247,11 +3247,11 @@
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="11"/>

--- a/Test Cases User Registration.xlsx
+++ b/Test Cases User Registration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="Edited sheet (2)" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="191">
   <si>
     <t>TC Title</t>
   </si>
@@ -1191,46 +1191,1094 @@
 4.Click submit button</t>
   </si>
   <si>
-    <t>Check the username with 17 characters</t>
-  </si>
-  <si>
-    <t>Check the unsuccessful user registration when 17 characters are entered in the username field</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">1. Enter in the username field 17 characters from any type
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2. Enter in the password field between 5 and 16 characters with at least one small and one capital letter, one special character and a digit
-3. Enter the exact same password in the "confirm password field"
+    <t>Check form with only subscription options filled in</t>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration when only filling in one/ two/ three subscriptions</t>
+  </si>
+  <si>
+    <t>1. Click Submit button</t>
+  </si>
+  <si>
+    <t>Check the successful registration with all required data</t>
+  </si>
+  <si>
+    <t>Check the successful registration with all required fields and three subscriptions marked</t>
+  </si>
+  <si>
+    <t>Successful registration with valid information in the required fields; no subscriptions</t>
+  </si>
+  <si>
+    <t>Successful registration with valid information in the required fields; one subscription</t>
+  </si>
+  <si>
+    <t>Successful registration with valid information in the required fields; two subscriptions</t>
+  </si>
+  <si>
+    <t>Successful registration with valid information in the required fields; three subscriptions</t>
+  </si>
+  <si>
+    <t>Check the successful registration with all required fields and one subscription marked</t>
+  </si>
+  <si>
+    <t>Check the successful registration with all required fields and two subscriptions marked</t>
+  </si>
+  <si>
+    <t>1. Enter in the username field between 2 and 16 letters or digits in any language
+2. Enter in the password field between 5 and 16 characters with at least one small and one capital letter, one special character and a digit
+3. Enter the exact same password in the confirm password field
 4. Enter a birthday date
 5. Enter an address
 6. Choose a gender
-7.  Mark none/ one/ two/ three options from the subscriptions menu
-8.Click submit button</t>
-    </r>
+7. Click Submit button</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter in the username field between 2 and 16 letters or digits in any language
+2. Enter in the password field between 5 and 16 characters with at least one small and one capital letter, one special character and a digit
+3. Enter the exact same password in the confirm password field
+4. Enter a birthday date
+5. Enter an address
+6. Choose a gender
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>7. Mark one option form "News about promotions", "Notification for vaccination" or "News about special offers"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+8. Click Submit button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter in the username field between 2 and 16 letters or digits in any language
+2. Enter in the password field between 5 and 16 characters with at least one small and one capital letter, one special character and a digit
+3. Enter the exact same password in the confirm password field
+4. Enter a birthday date
+5. Enter an address
+6. Choose a gender
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>7. Mark two options from "News about promotions", "Notification for vaccination" or "News about special offers"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+8. Click Submit button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter in the username field between 2 and 16 letters and digits in any language
+2. Enter in the password field between 5 and 16 characters with at least one small and one capital letter, one special character and a digit
+3. Enter the exact same password in the confirm password field
+4. Enter a birthday date
+5. Enter an address
+6. Choose a gender
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>7. Mark all three options "News about promotions", "Notification for vaccination" and "News about special offers"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+8. Click Submit button</t>
+    </r>
+  </si>
+  <si>
+    <t>Check the username with only one letter or digit (&lt;2)</t>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration with only one letter/ digit entered in the username field</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1.Leave the username field empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4.Click submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Leave the password field empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit buttonn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for username field: 2 - 16 letters/ digits in any language
+Valid data for confirm password fild: 5 - 16 characters; at least one small and one capital letter, one special character and a digit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Leave the birthday field empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill all other required fields with valid data
+3.  Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for username field: 2 - 16 letters/ digits in any language 
+Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. Leave the address field empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill all other required fields with valid data
+3.  Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Comment: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Valid data for username field: 2 - 16 letters/ digits in any language 
+Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration when 17 valid characters are entered in the username field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press the "Pet Registration" button from the navigation bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press the "Home" button from the navigation bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press the "Search Page" button from the navigation bar </t>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration when 16 characters are entered in the username field (incl. special characters)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Execute the test case replacing # with: ~ ` ! @ # $ % ^ &amp; * ( ) - _ + = | \ [ { ' " ; : / ? . &gt; , &lt; ] } № § € </t>
+  </si>
+  <si>
+    <t>Check the username with 16 characters including  special characters</t>
+  </si>
+  <si>
+    <t>Check the username with 17 characters (&gt;16)</t>
+  </si>
+  <si>
+    <t>Check the username field with 2 characters including one special character</t>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration when 2 characters are entered in the username field (incl. special characters)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> * 1. Enter in the username field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">mAr7iNqh#1&lt;3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+* see NOTE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Enter in the username field only one letter or digit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Commen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t: Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Enter in the username field m#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click submit button
+* see NOTE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <t>Check the date shown in the birthday field after choosing a date from the menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the result when a date is chosen from the birthday date </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Fill in the required fields with valid data
+2. Click on the birthday date field and choose a date from the calendar
+3. Mark none/ one/ two/ three options from the subscriptions menu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for username field: 2 - 16 letters/ digits in any language 
+Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <t>Green thumb up is show in the required fields with correct data; the field for the birthday date input matches the date chosen from the calendar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Fill in all the required fields with valid data
+2. Enter in the confirm password field different character combination from the one in the password field
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>:  Valid data for username field: 2 - 16 letters/ digits in any language 
+Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Leave the confirm password field empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill all other required fields with valid data
+3.  Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for username field: 2 - 16 letters/ digits in any language 
+Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Leave all fields empty
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2. Mark one/ two/ three options from the subscriptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+3. Click Submit button</t>
+    </r>
+  </si>
+  <si>
+    <t>Check password with 16 charcters</t>
+  </si>
+  <si>
+    <t>Check password with 4 characters (&lt;5)</t>
+  </si>
+  <si>
+    <t>Check password with 17 characters (&gt;16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check the unsuccessful user registration with 4 characters entered in the password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red thumb down is shown in the password and in the confirm password fields. No user is registered </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red thumb down is shown in the password and in the confirm password fields. No user is registered  </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1. Enter in the username field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>oMaRTin40iQH4ev3r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check the unsuccessful user registration with 17 characters entered in the password field</t>
+  </si>
+  <si>
+    <t>Check password with  5 characters without digits</t>
+  </si>
+  <si>
+    <t>Check password with  5 characters, but not covering all valid data criterias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the unsuccessful user registration with 5 characters entered in the password field, but not covering all criterias for valid password </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1. Enter in the password field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>aB#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (one small letter, one capital letter, one special character and a digit)
+2. Enter in the "confirm password field" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>aB#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (the exact same password as in the password field) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Fill in all other required fields with valid data
+4. Mark none/ one/ two/ three options from the subscriptions menu
+5. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Valid data for username field: 2 - 16 letters/ digits in any language </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter in the password field oMaRTin40#QH4ev3r (at least one small letter, one capital letter, one special character and a digit)
+2. Enter in the "confirm password field" oMaRTin40#QH4ev3r (the exact same password as in the password field) 
+3. Fill in all other required fields with valid data
+4. Mark none/ one/ two/ three options from the subscriptions menu
+5. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Valid data for username field: 2 - 16 letters/ digits in any language </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enter in the password field mb12$ (at least one small letter, one capital letter, one special character and a digit)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">* 1. Enter in the password field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mb12$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (at least one small letter, one special character and a digit)
+2. Enter in the "confirm password field" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mb12$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (the exact same password as in the password field) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Fill in all other required fields with valid data
+4. Mark none/ one/ two/ three options from the subscriptions menu
+5. Click Submit button
+* see NOTE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Valid data for username field: 2 - 16 letters/ digits in any language </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Execute the test case replacing mb12$ with
+MB12$
+mB$#h
+mB358
+678$#
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1303,6 +2351,74 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1336,7 +2452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1372,12 +2488,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1450,18 +2623,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,16 +2651,91 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1786,25 +3041,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="48" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="65.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="59" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
@@ -1820,745 +3075,635 @@
       <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="61" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:12" s="32" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="B3" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="F3" s="62"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:12" s="32" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="F4" s="62"/>
+    </row>
+    <row r="5" spans="1:12" s="32" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="B5" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="F5" s="62"/>
+    </row>
+    <row r="6" spans="1:12" s="32" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
+      <c r="F6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="F7" s="63"/>
+    </row>
+    <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
+    <row r="9" spans="1:12" s="32" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="45">
         <v>5</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="F9" s="64"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" s="32" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="45">
         <v>6</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="B10" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="59"/>
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:12" s="32" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="45">
+        <v>7</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="36"/>
+    </row>
+    <row r="12" spans="1:12" s="32" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="45">
+        <v>8</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="59"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="1:12" s="32" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="45">
+        <v>9</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="36"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:12" s="32" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="45">
+        <v>10</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="59"/>
+      <c r="G14" s="36"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+    </row>
+    <row r="15" spans="1:12" s="32" customFormat="1" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50">
+        <v>11</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="59"/>
+      <c r="G15" s="36"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="16"/>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="21"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" s="32" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="45">
+        <v>12</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="65"/>
+    </row>
+    <row r="19" spans="1:9" s="32" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="45">
+        <v>13</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="59"/>
+    </row>
+    <row r="20" spans="1:9" s="32" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="45">
+        <v>14</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="32" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="45">
+        <v>15</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:9" s="32" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="45">
         <v>20</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>7</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>8</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>9</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="B23" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="57"/>
+    </row>
+    <row r="24" spans="1:9" s="32" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="45">
+        <v>21</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="47">
+        <v>22</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="47">
+        <v>25</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="47">
+        <v>26</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="47">
+        <v>27</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="47">
+        <v>28</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="62"/>
+    </row>
+    <row r="33" spans="1:6" s="32" customFormat="1" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="45">
+        <v>30</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>10</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>11</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="F33" s="57"/>
+    </row>
+    <row r="34" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:6" s="32" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="45">
+        <v>31</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="57"/>
+    </row>
+    <row r="36" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="62"/>
+    </row>
+    <row r="37" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="45">
+        <v>32</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="45">
+        <v>33</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+    </row>
+    <row r="39" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="45">
+        <v>34</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>14</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
-        <v>15</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
-        <v>16</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="36" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="33">
-        <v>17</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="35"/>
-    </row>
-    <row r="23" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
-        <v>18</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
-        <v>19</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
-        <v>20</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
-        <v>21</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
-        <v>22</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
-        <v>23</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24">
-        <v>24</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
-        <v>25</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
-        <v>26</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
-        <v>27</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
-        <v>28</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
-        <v>29</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
-        <v>30</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
-        <v>31</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
-        <v>32</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19">
-        <v>33</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19">
-        <v>34</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
+    </row>
+    <row r="40" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A41:C41"/>
+  <mergeCells count="8">
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2569,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
@@ -2606,11 +3751,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="13"/>
@@ -2699,11 +3844,11 @@
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
     </row>
@@ -2849,10 +3994,10 @@
     </row>
     <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="32"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
     </row>
@@ -2872,7 +4017,7 @@
       <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3000,11 +4145,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="22"/>
       <c r="E25" s="21"/>
     </row>
@@ -3024,7 +4169,7 @@
       <c r="E26" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="27" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3044,7 +4189,7 @@
       <c r="E27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24">
@@ -3062,7 +4207,7 @@
       <c r="E28" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24">
@@ -3080,7 +4225,7 @@
       <c r="E29" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24">
@@ -3098,7 +4243,7 @@
       <c r="E30" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24">
@@ -3116,7 +4261,7 @@
       <c r="E31" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24">
@@ -3134,7 +4279,7 @@
       <c r="E32" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24">
@@ -3152,7 +4297,7 @@
       <c r="E33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
@@ -3170,7 +4315,7 @@
       <c r="E34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24">
@@ -3188,14 +4333,14 @@
       <c r="E35" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="28"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="22"/>
       <c r="E36" s="21"/>
       <c r="F36" s="11"/>
@@ -3219,11 +4364,11 @@
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="22"/>
       <c r="E38" s="21"/>
       <c r="F38" s="11"/>
@@ -3247,11 +4392,11 @@
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="11"/>
@@ -3266,7 +4411,7 @@
       <c r="C41" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="22" t="s">

--- a/Test Cases User Registration.xlsx
+++ b/Test Cases User Registration.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgyurov\Desktop\PetStoreTestingTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnikolova\Desktop\PetStoreTestingTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Edited sheet (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Final TC" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="193">
   <si>
     <t>TC Title</t>
   </si>
@@ -1191,38 +1191,1727 @@
 4.Click submit button</t>
   </si>
   <si>
-    <t>Check the username with 17 characters</t>
-  </si>
-  <si>
-    <t>Check the unsuccessful user registration when 17 characters are entered in the username field</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">1. Enter in the username field 17 characters from any type
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2. Enter in the password field between 5 and 16 characters with at least one small and one capital letter, one special character and a digit
-3. Enter the exact same password in the "confirm password field"
+    <t>Check the successful registration with all required data</t>
+  </si>
+  <si>
+    <t>Successful registration with valid information in the required fields; no subscriptions</t>
+  </si>
+  <si>
+    <t>1. Enter in the username field between 2 and 16 letters or digits in any language
+2. Enter in the password field between 5 and 16 characters with at least one small and one capital letter, one special character and a digit
+3. Enter the exact same password in the confirm password field
 4. Enter a birthday date
 5. Enter an address
 6. Choose a gender
-7.  Mark none/ one/ two/ three options from the subscriptions menu
-8.Click submit button</t>
+7. Click Submit button</t>
+  </si>
+  <si>
+    <t>Check the successful registration with all required fields and one subscription marked</t>
+  </si>
+  <si>
+    <t>Successful registration with valid information in the required fields; one subscription</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter in the username field between 2 and 16 letters or digits in any language
+2. Enter in the password field between 5 and 16 characters with at least one small and one capital letter, one special character and a digit
+3. Enter the exact same password in the confirm password field
+4. Enter a birthday date
+5. Enter an address
+6. Choose a gender
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>7. Mark one option form "News about promotions", "Notification for vaccination" or "News about special offers"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+8. Click Submit button</t>
+    </r>
+  </si>
+  <si>
+    <t>Check the successful registration with all required fields and two subscriptions marked</t>
+  </si>
+  <si>
+    <t>Successful registration with valid information in the required fields; two subscriptions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter in the username field between 2 and 16 letters or digits in any language
+2. Enter in the password field between 5 and 16 characters with at least one small and one capital letter, one special character and a digit
+3. Enter the exact same password in the confirm password field
+4. Enter a birthday date
+5. Enter an address
+6. Choose a gender
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>7. Mark two options from "News about promotions", "Notification for vaccination" or "News about special offers"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+8. Click Submit button</t>
+    </r>
+  </si>
+  <si>
+    <t>Check the successful registration with all required fields and three subscriptions marked</t>
+  </si>
+  <si>
+    <t>Successful registration with valid information in the required fields; three subscriptions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Enter in the username field between 2 and 16 letters and digits in any language
+2. Enter in the password field between 5 and 16 characters with at least one small and one capital letter, one special character and a digit
+3. Enter the exact same password in the confirm password field
+4. Enter a birthday date
+5. Enter an address
+6. Choose a gender
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>7. Mark all three options "News about promotions", "Notification for vaccination" and "News about special offers"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+8. Click Submit button</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Click Submit button</t>
+  </si>
+  <si>
+    <t>Check form with only subscription options filled in</t>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration when only filling in one/ two/ three subscriptions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Leave all fields empty
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2. Mark one/ two/ three options from the subscriptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 
+3. Click Submit button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1.Leave the username field empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4.Click submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Leave the password field empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit buttonn
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for username field: 2 - 16 letters/ digits in any language
+Valid data for confirm password fild: 5 - 16 characters; at least one small and one capital letter, one special character and a digit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Leave the confirm password field empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill all other required fields with valid data
+3.  Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for username field: 2 - 16 letters/ digits in any language 
+Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Leave the birthday field empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill all other required fields with valid data
+3.  Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for username field: 2 - 16 letters/ digits in any language 
+Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>. Leave the address field empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill all other required fields with valid data
+3.  Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Comment: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Valid data for username field: 2 - 16 letters/ digits in any language 
+Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <t>Check the username with only one letter or digit (&lt;2)</t>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration with only one letter/ digit entered in the username field</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1. Enter in the username field only one letter or digit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Commen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t: Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <t>Check the username with 17 characters (&gt;16)</t>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration when 17 valid characters are entered in the username field</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1. Enter in the username field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>oMaRTin40iQH4ev3r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <t>Check the username with 16 characters including  special characters</t>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration when 16 characters are entered in the username field (incl. special characters)</t>
+  </si>
+  <si>
+    <t>Check the username field with 2 characters including one special character</t>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration when 2 characters are entered in the username field (incl. special characters)</t>
+  </si>
+  <si>
+    <t>Check password with 4 characters (&lt;5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check the unsuccessful user registration with 4 characters entered in the password field</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1. Enter in the password field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>aB#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (one small letter, one capital letter, one special character and a digit)
+2. Enter in the "confirm password field" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>aB#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (the exact same password as in the password field) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Fill in all other required fields with valid data
+4. Mark none/ one/ two/ three options from the subscriptions menu
+5. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Valid data for username field: 2 - 16 letters/ digits in any language </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Red thumb down is shown in the password and in the confirm password fields. No user is registered </t>
+  </si>
+  <si>
+    <t>Check password with 17 characters (&gt;16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check the unsuccessful user registration with 17 characters entered in the password field</t>
+  </si>
+  <si>
+    <t>Check password with  5 characters, but not covering all valid data criterias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the unsuccessful user registration with 5 characters entered in the password field, but not covering all criterias for valid password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red thumb down is shown in the password and in the confirm password fields. No user is registered  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the result when a date is chosen from the birthday date </t>
+  </si>
+  <si>
+    <t>Check the date shown in the birthday field after choosing a date from the menu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Fill in the required fields with valid data
+2. Click on the birthday date field and choose a date from the calendar
+3. Mark none/ one/ two/ three options from the subscriptions menu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for username field: 2 - 16 letters/ digits in any language 
+Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <t>Green thumb up is show in the required fields with correct data; the field for the birthday date input matches the date chosen from the calendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press the "Home" button from the navigation bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press the "Pet Registration" button from the navigation bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Press the "Search Page" button from the navigation bar </t>
+  </si>
+  <si>
+    <t>Check the unsuccessful user registration with 16 characters entered in the password field, but not covering all criterias for valid password</t>
+  </si>
+  <si>
+    <t>Check password with 16 charcters, but not covering all valid data criterias</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Execute the test case replacing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mb12$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> with
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>MB12$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (no small letter)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mB$#h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (no digit)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mB358</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (no special character)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Execute the test case replacing # with: ~ ` ! @ # $ % ^ &amp; * ( ) - _ + = | \ [ { ' " ; : / ? . &gt; , &lt; ] } № § € </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1. Enter in the username field m#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>* see NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Execute the test case replacing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>martin4o#1&lt;3qh[:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">  with
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>MARTIN4O#1&lt;3QH[:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (no small letter)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>martinQo#Q&lt;Qqh[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: (no digit)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>martin4oQ1Q3qhQQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (no special character)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1. Enter in the password field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>oMaRTin40#QH4ev3r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (at least one small letter, one capital letter, one special character and a digit)
+2. Enter in the "confirm password field" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>oMaRTin40#QH4ev3r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">(the exact same password as in the password field) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Fill in all other required fields with valid data
+4. Mark none/ one/ two/ three options from the subscriptions menu
+5. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">: Valid data for username field: 2 - 16 letters/ digits in any language </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1. Enter in the password field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mb12$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (no capital letters)
+2. Enter in the "confirm password field" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>mb12$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (the exact same password as in the password field) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Fill in all other required fields with valid data
+4. Mark none/ one/ two/ three options from the subscriptions menu
+5. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>* see NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Valid data for username field: 2 - 16 letters/ digits in any language </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">* 1. Enter in the password field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>martin4o#1&lt;3qh[:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (no capital letters)
+2. Enter in the "confirm password field" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>martin4o#1&lt;3qh[:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> (the exact same password as in the password field) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Fill in all other required fields with valid data
+4. Mark none/ one/ two/ three options from the subscriptions menu
+5. Click Submit button
+* see NOTE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Comment: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Valid data for username field: 2 - 16 letters/ digits in any language </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+1. Fill in all the required fields with valid data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>2. Enter in the confirm password field different character combination from the one in the password field</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*see NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">:  Valid data for username field: 2 - 16 letters/ digits in any language 
+Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Execute the test case twice with:
+1. Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>QQmArTiN#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Confirm Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>qqMaRtIn#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>QQmArTin#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Confirm Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>qqMadaMa%1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 1. Enter in the username field </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">#1mAr7iNqh&lt;3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2. Fill in all other required fields with valid data
+3. Mark none/ one/ two/ three options from the subscriptions menu
+4. Click Submit button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>* see NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
+Valid data for confirm password fild:  the exact same as in password field</t>
     </r>
   </si>
 </sst>
@@ -1230,7 +2919,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1303,8 +2992,83 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1329,14 +3093,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1372,12 +3130,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1447,31 +3262,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1786,779 +3672,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="50" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="49" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="61.42578125" style="51" customWidth="1"/>
+    <col min="7" max="7" width="22" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="40" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36">
+        <v>2</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36">
+        <v>4</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="36">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="B9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>2</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36">
         <v>6</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="B10" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>3</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36">
         <v>7</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="B11" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="1:9" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36">
         <v>8</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="B14" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36">
+        <v>9</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36">
+        <v>10</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36">
+        <v>11</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="36">
+        <v>12</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="16"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:12" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="36">
+        <v>13</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="16"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+    </row>
+    <row r="20" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46">
+        <v>14</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="16"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="36"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="16"/>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="34"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="36">
+        <v>15</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="36">
+        <v>16</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="36">
+        <v>17</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="36">
+        <v>18</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="28" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="36">
         <v>19</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
-        <v>5</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>6</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="B29" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="36">
         <v>20</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>7</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>8</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>9</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="B30" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:12" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="36">
+        <v>21</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="36">
+        <v>22</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" s="39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="36"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="32"/>
+    </row>
+    <row r="35" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="36">
+        <v>23</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>10</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>11</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
-        <v>12</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>13</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>14</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="F35" s="39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="36"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="32"/>
+    </row>
+    <row r="38" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="36">
         <v>24</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
-        <v>15</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
-        <v>16</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="33" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
-        <v>17</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
-        <v>18</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
-        <v>19</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
-        <v>20</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
-        <v>21</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24">
-        <v>22</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
-        <v>23</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24">
-        <v>24</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
-        <v>25</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24">
-        <v>26</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="24">
-        <v>27</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
-        <v>28</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24">
-        <v>29</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24">
-        <v>30</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24">
-        <v>31</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
-        <v>32</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19">
-        <v>33</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19">
-        <v>34</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="119.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B38" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F38" s="32"/>
+    </row>
+    <row r="39" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A41:C41"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A34:C34"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2569,7 +4386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
@@ -2606,11 +4423,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="13"/>
@@ -2699,11 +4516,11 @@
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
     </row>
@@ -2849,10 +4666,10 @@
     </row>
     <row r="16" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="22"/>
       <c r="E16" s="21"/>
     </row>
@@ -2872,7 +4689,7 @@
       <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="27" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3000,11 +4817,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="22"/>
       <c r="E25" s="21"/>
     </row>
@@ -3024,7 +4841,7 @@
       <c r="E26" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="26" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3044,7 +4861,7 @@
       <c r="E27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24">
@@ -3062,7 +4879,7 @@
       <c r="E28" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24">
@@ -3080,7 +4897,7 @@
       <c r="E29" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24">
@@ -3098,7 +4915,7 @@
       <c r="E30" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24">
@@ -3116,7 +4933,7 @@
       <c r="E31" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24">
@@ -3134,7 +4951,7 @@
       <c r="E32" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24">
@@ -3152,7 +4969,7 @@
       <c r="E33" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24">
@@ -3170,7 +4987,7 @@
       <c r="E34" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="28"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24">
@@ -3188,14 +5005,14 @@
       <c r="E35" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="28"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="22"/>
       <c r="E36" s="21"/>
       <c r="F36" s="11"/>
@@ -3219,11 +5036,11 @@
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="22"/>
       <c r="E38" s="21"/>
       <c r="F38" s="11"/>
@@ -3247,11 +5064,11 @@
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="11"/>
@@ -3266,7 +5083,7 @@
       <c r="C41" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="22" t="s">

--- a/Test Cases User Registration.xlsx
+++ b/Test Cases User Registration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tnikolova\Desktop\PetStoreTestingTask\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgyurov\Desktop\PetStoreTestingTask\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="194">
   <si>
     <t>TC Title</t>
   </si>
@@ -1954,140 +1954,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>NOTE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: Execute the test case replacing </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>mb12$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> with
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>MB12$</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (no small letter)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>mB$#h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (no digit)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>mB358</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (no special character)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>NOTE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: Execute the test case replacing # with: ~ ` ! @ # $ % ^ &amp; * ( ) - _ + = | \ [ { ' " ; : / ? . &gt; , &lt; ] } № § € </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -2160,116 +2026,6 @@
       </rPr>
       <t>: Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
 Valid data for confirm password fild:  the exact same as in password field</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>NOTE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Execute the test case replacing </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>martin4o#1&lt;3qh[:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">  with
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>MARTIN4O#1&lt;3QH[:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (no small letter)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>martinQo#Q&lt;Qqh[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">: (no digit)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>martin4oQ1Q3qhQQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (no special character)</t>
     </r>
   </si>
   <si>
@@ -2702,107 +2458,6 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>NOTE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Execute the test case twice with:
-1. Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>QQmArTiN#1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Confirm Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>qqMaRtIn#1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-2. Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>QQmArTin#1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Confirm Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>qqMadaMa%1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
         <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -2913,13 +2568,41 @@
       <t>: Valid data for password field: 5 - 16 characters; at least one small and one capital letter, one special character and a digit
 Valid data for confirm password fild:  the exact same as in password field</t>
     </r>
+  </si>
+  <si>
+    <t>cant enter username with capital letter 
+cant enter a proper address 
+invalid email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Execute the test case replacing # with: ~ ` ! @ # $ % ^ &amp; * ( ) - _ + = | \ [ { ' " ; : / ? . &gt; , &lt; ] } № § € </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE: Execute the test case replacing mb12$ with
+MB12$ (no small letter)
+mB$#h (no digit)
+mB358 (no special character)
+</t>
+  </si>
+  <si>
+    <t>NOTE: Execute the test case replacing martin4o#1&lt;3qh[:  with
+MARTIN4O#1&lt;3QH[: (no small letter)
+martinQo#Q&lt;Qqh[: (no digit)
+martin4oQ1Q3qhQQ (no special character)</t>
+  </si>
+  <si>
+    <t>NOTE: Execute the test case twice with:
+1. Password: QQmArTiN#1
+Confirm Password: qqMaRtIn#1
+2. Password: QQmArTin#1
+Confirm Password: qqMadaMa%1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3067,8 +2750,29 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3091,6 +2795,21 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -3188,11 +2907,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3292,14 +3014,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3337,6 +3055,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3352,12 +3082,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3367,9 +3091,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3674,37 +3417,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="48" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="49" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="61.42578125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="48" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="61.42578125" style="49" customWidth="1"/>
     <col min="7" max="7" width="22" style="5" customWidth="1"/>
     <col min="8" max="16384" width="14.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="30" t="s">
@@ -3712,17 +3455,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36">
+    <row r="3" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -3731,16 +3474,16 @@
       <c r="C3" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="40" t="s">
         <v>178</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36">
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -3749,16 +3492,16 @@
       <c r="C4" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="41" t="s">
         <v>179</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36">
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -3767,34 +3510,34 @@
       <c r="C5" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="41" t="s">
         <v>180</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="34"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
-      <c r="D6" s="43"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="29"/>
       <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
+    <row r="8" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
         <v>4</v>
       </c>
       <c r="B8" s="29" t="s">
@@ -3809,13 +3552,15 @@
       <c r="E8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-    </row>
-    <row r="9" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
+      <c r="F8" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9" ht="153" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
         <v>5</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -3830,10 +3575,10 @@
       <c r="E9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
         <v>6</v>
       </c>
       <c r="B10" s="29" t="s">
@@ -3848,10 +3593,10 @@
       <c r="E10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36">
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
         <v>7</v>
       </c>
       <c r="B11" s="29" t="s">
@@ -3866,10 +3611,10 @@
       <c r="E11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:9" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="F11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" s="43" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
       <c r="B12" s="29"/>
       <c r="C12" s="28"/>
       <c r="D12" s="29"/>
@@ -3877,17 +3622,17 @@
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="29"/>
       <c r="E13" s="28"/>
       <c r="F13" s="34"/>
     </row>
-    <row r="14" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36">
+    <row r="14" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
         <v>8</v>
       </c>
       <c r="B14" s="29" t="s">
@@ -3902,11 +3647,11 @@
       <c r="E14" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36">
+    <row r="15" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
         <v>9</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -3921,11 +3666,11 @@
       <c r="E15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36">
+    <row r="16" spans="1:9" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
         <v>10</v>
       </c>
       <c r="B16" s="29" t="s">
@@ -3940,11 +3685,11 @@
       <c r="E16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36">
+    <row r="17" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
         <v>11</v>
       </c>
       <c r="B17" s="29" t="s">
@@ -3959,11 +3704,11 @@
       <c r="E17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="34"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+    <row r="18" spans="1:12" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
         <v>12</v>
       </c>
       <c r="B18" s="29" t="s">
@@ -3978,12 +3723,12 @@
       <c r="E18" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="16"/>
-      <c r="I18" s="37"/>
-    </row>
-    <row r="19" spans="1:12" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36">
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:12" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
         <v>13</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -3998,56 +3743,56 @@
       <c r="E19" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="34"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-    </row>
-    <row r="20" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46">
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+    </row>
+    <row r="20" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44">
         <v>14</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="45" t="s">
         <v>154</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="34"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="16"/>
-      <c r="I20" s="37"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="34"/>
       <c r="G21" s="16"/>
-      <c r="I21" s="37"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="48"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="28"/>
       <c r="F22" s="34"/>
-      <c r="I22" s="37"/>
-    </row>
-    <row r="23" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36">
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35">
         <v>15</v>
       </c>
       <c r="B23" s="29" t="s">
@@ -4062,10 +3807,10 @@
       <c r="E23" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36">
+      <c r="F23" s="63"/>
+    </row>
+    <row r="24" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35">
         <v>16</v>
       </c>
       <c r="B24" s="29" t="s">
@@ -4080,10 +3825,10 @@
       <c r="E24" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="50"/>
     </row>
     <row r="25" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+      <c r="A25" s="35">
         <v>17</v>
       </c>
       <c r="B25" s="29" t="s">
@@ -4093,17 +3838,17 @@
         <v>162</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="39" t="s">
-        <v>184</v>
+      <c r="F25" s="64" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+      <c r="A26" s="35">
         <v>18</v>
       </c>
       <c r="B26" s="29" t="s">
@@ -4113,35 +3858,35 @@
         <v>164</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="39" t="s">
-        <v>184</v>
+      <c r="F26" s="64" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="28"/>
-      <c r="F27" s="39"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="29"/>
       <c r="E28" s="28"/>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36">
+    <row r="29" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35">
         <v>19</v>
       </c>
       <c r="B29" s="29" t="s">
@@ -4156,10 +3901,10 @@
       <c r="E29" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36">
+      <c r="F29" s="65"/>
+    </row>
+    <row r="30" spans="1:12" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35">
         <v>20</v>
       </c>
       <c r="B30" s="29" t="s">
@@ -4169,16 +3914,16 @@
         <v>170</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="H30" s="37"/>
+      <c r="F30" s="50"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:12" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36">
+      <c r="A31" s="35">
         <v>21</v>
       </c>
       <c r="B31" s="29" t="s">
@@ -4188,17 +3933,17 @@
         <v>172</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="F31" s="39" t="s">
-        <v>183</v>
+      <c r="F31" s="64" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36">
+      <c r="A32" s="35">
         <v>22</v>
       </c>
       <c r="B32" s="29" t="s">
@@ -4208,17 +3953,17 @@
         <v>181</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="39" t="s">
-        <v>186</v>
+      <c r="F32" s="64" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -4226,17 +3971,17 @@
       <c r="F33" s="34"/>
     </row>
     <row r="34" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="29"/>
       <c r="E34" s="28"/>
       <c r="F34" s="32"/>
     </row>
     <row r="35" spans="1:6" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36">
+      <c r="A35" s="35">
         <v>23</v>
       </c>
       <c r="B35" s="29" t="s">
@@ -4246,17 +3991,17 @@
         <v>103</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E35" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="39" t="s">
-        <v>191</v>
+      <c r="F35" s="66" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -4264,17 +4009,17 @@
       <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="29"/>
       <c r="E37" s="28"/>
       <c r="F37" s="32"/>
     </row>
-    <row r="38" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+    <row r="38" spans="1:6" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="35">
         <v>24</v>
       </c>
       <c r="B38" s="29" t="s">
@@ -4289,7 +4034,7 @@
       <c r="E38" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="32"/>
+      <c r="F38" s="67"/>
     </row>
     <row r="39" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4368,14 +4113,14 @@
     <row r="113" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4388,7 +4133,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
